--- a/uploads/Datos.xlsx
+++ b/uploads/Datos.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Node.js\excel-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aportes\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35B7C15C-4E27-40FD-BB8C-4E27E9D2404A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC27EE21-34EA-44A2-8C51-2A2E28AFA52E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$80</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1522,12 +1525,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1595,7 +1600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1783,7 +1788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1830,7 +1835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2112,7 +2117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2159,7 +2164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2206,7 +2211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2253,7 +2258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2347,7 +2352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2441,7 +2446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2488,7 +2493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2535,7 +2540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2582,7 +2587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2629,7 +2634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2676,7 +2681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2770,7 +2775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2817,7 +2822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2864,7 +2869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2911,7 +2916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3005,7 +3010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3052,7 +3057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -3099,7 +3104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3146,7 +3151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -4744,7 +4749,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -4885,7 +4890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -4932,7 +4937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -5026,7 +5031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -5309,6 +5314,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O80" xr:uid="{888D77E4-3A76-403A-822A-ECC97417E855}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="NCA"/>
+        <filter val="ND Transferencia Interbancaria Web"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:O80" numberStoredAsText="1"/>

--- a/uploads/Datos.xlsx
+++ b/uploads/Datos.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aportes\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Node.js\excel-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC27EE21-34EA-44A2-8C51-2A2E28AFA52E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35B7C15C-4E27-40FD-BB8C-4E27E9D2404A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$80</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1525,14 +1522,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L91" sqref="L91"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1600,7 +1595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1835,7 +1830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2117,7 +2112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2164,7 +2159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2211,7 +2206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2305,7 +2300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2352,7 +2347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2399,7 +2394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2446,7 +2441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2493,7 +2488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2540,7 +2535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2587,7 +2582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2634,7 +2629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2681,7 +2676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2728,7 +2723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2775,7 +2770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2822,7 +2817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2869,7 +2864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2916,7 +2911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2963,7 +2958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3010,7 +3005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3057,7 +3052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -3104,7 +3099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3151,7 +3146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -4749,7 +4744,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -4890,7 +4885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -4937,7 +4932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -4984,7 +4979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -5031,7 +5026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -5314,14 +5309,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O80" xr:uid="{888D77E4-3A76-403A-822A-ECC97417E855}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="NCA"/>
-        <filter val="ND Transferencia Interbancaria Web"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:O80" numberStoredAsText="1"/>

--- a/uploads/Datos.xlsx
+++ b/uploads/Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Node.js\excel-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noxfe\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35B7C15C-4E27-40FD-BB8C-4E27E9D2404A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F2EC97-FBF3-466C-B609-389FB978B5A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1214,7 +1214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,6 +1224,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1239,11 +1251,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1527,7 +1542,9 @@
   </sheetPr>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1536,7 +1553,7 @@
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
@@ -1564,7 +1581,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1611,7 +1628,7 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G2">
@@ -1658,7 +1675,7 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G3">
@@ -1705,7 +1722,7 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G4">
@@ -1752,7 +1769,7 @@
       <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G5">
@@ -1799,7 +1816,7 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G6">
@@ -1846,7 +1863,7 @@
       <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G7">
@@ -1890,10 +1907,10 @@
       <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="3">
@@ -1940,7 +1957,7 @@
       <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="3">
@@ -1987,7 +2004,7 @@
       <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G10">
@@ -2034,7 +2051,7 @@
       <c r="E11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="3">
@@ -2081,7 +2098,7 @@
       <c r="E12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G12">
@@ -2128,7 +2145,7 @@
       <c r="E13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G13">
@@ -2175,7 +2192,7 @@
       <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G14">
@@ -2222,7 +2239,7 @@
       <c r="E15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G15">
@@ -2269,7 +2286,7 @@
       <c r="E16" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G16">
@@ -2316,7 +2333,7 @@
       <c r="E17" t="s">
         <v>98</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G17">
@@ -2363,7 +2380,7 @@
       <c r="E18" t="s">
         <v>102</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G18">
@@ -2410,7 +2427,7 @@
       <c r="E19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G19">
@@ -2457,7 +2474,7 @@
       <c r="E20" t="s">
         <v>110</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G20">
@@ -2504,7 +2521,7 @@
       <c r="E21" t="s">
         <v>115</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G21">
@@ -2551,7 +2568,7 @@
       <c r="E22" t="s">
         <v>119</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G22">
@@ -2598,7 +2615,7 @@
       <c r="E23" t="s">
         <v>121</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G23">
@@ -2645,7 +2662,7 @@
       <c r="E24" t="s">
         <v>125</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G24">
@@ -2692,7 +2709,7 @@
       <c r="E25" t="s">
         <v>129</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G25">
@@ -2739,7 +2756,7 @@
       <c r="E26" t="s">
         <v>133</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G26">
@@ -2786,7 +2803,7 @@
       <c r="E27" t="s">
         <v>137</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G27">
@@ -2833,7 +2850,7 @@
       <c r="E28" t="s">
         <v>141</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G28">
@@ -2880,7 +2897,7 @@
       <c r="E29" t="s">
         <v>145</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G29">
@@ -2927,7 +2944,7 @@
       <c r="E30" t="s">
         <v>149</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G30">
@@ -2974,7 +2991,7 @@
       <c r="E31" t="s">
         <v>153</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G31">
@@ -3021,7 +3038,7 @@
       <c r="E32" t="s">
         <v>157</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G32">
@@ -3068,7 +3085,7 @@
       <c r="E33" t="s">
         <v>161</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G33">
@@ -3115,7 +3132,7 @@
       <c r="E34" t="s">
         <v>165</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G34">
@@ -3162,7 +3179,7 @@
       <c r="E35" t="s">
         <v>169</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G35">
@@ -3209,7 +3226,7 @@
       <c r="E36" t="s">
         <v>173</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G36">
@@ -3256,7 +3273,7 @@
       <c r="E37" t="s">
         <v>179</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G37">
@@ -3303,7 +3320,7 @@
       <c r="E38" t="s">
         <v>184</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G38">
@@ -3350,7 +3367,7 @@
       <c r="E39" t="s">
         <v>189</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G39">
@@ -3397,7 +3414,7 @@
       <c r="E40" t="s">
         <v>194</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G40">
@@ -3444,7 +3461,7 @@
       <c r="E41" t="s">
         <v>199</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G41">
@@ -3491,7 +3508,7 @@
       <c r="E42" t="s">
         <v>204</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G42">
@@ -3538,7 +3555,7 @@
       <c r="E43" t="s">
         <v>209</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G43">
@@ -3585,7 +3602,7 @@
       <c r="E44" t="s">
         <v>214</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G44">
@@ -3632,7 +3649,7 @@
       <c r="E45" t="s">
         <v>219</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G45">
@@ -3679,7 +3696,7 @@
       <c r="E46" t="s">
         <v>225</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G46">
@@ -3726,7 +3743,7 @@
       <c r="E47" t="s">
         <v>230</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G47">
@@ -3773,7 +3790,7 @@
       <c r="E48" t="s">
         <v>235</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G48">
@@ -3820,7 +3837,7 @@
       <c r="E49" t="s">
         <v>240</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G49">
@@ -3867,7 +3884,7 @@
       <c r="E50" t="s">
         <v>245</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G50">
@@ -3914,7 +3931,7 @@
       <c r="E51" t="s">
         <v>249</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G51">
@@ -3961,7 +3978,7 @@
       <c r="E52" t="s">
         <v>254</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G52">
@@ -4008,7 +4025,7 @@
       <c r="E53" t="s">
         <v>259</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G53">
@@ -4055,7 +4072,7 @@
       <c r="E54" t="s">
         <v>263</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G54">
@@ -4102,7 +4119,7 @@
       <c r="E55" t="s">
         <v>268</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G55">
@@ -4149,7 +4166,7 @@
       <c r="E56" t="s">
         <v>273</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G56">
@@ -4196,7 +4213,7 @@
       <c r="E57" t="s">
         <v>279</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G57">
@@ -4243,7 +4260,7 @@
       <c r="E58" t="s">
         <v>285</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G58">
@@ -4290,7 +4307,7 @@
       <c r="E59" t="s">
         <v>289</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G59">
@@ -4337,7 +4354,7 @@
       <c r="E60" t="s">
         <v>294</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G60">
@@ -4384,7 +4401,7 @@
       <c r="E61" t="s">
         <v>299</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G61">
@@ -4431,7 +4448,7 @@
       <c r="E62" t="s">
         <v>304</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G62">
@@ -4478,7 +4495,7 @@
       <c r="E63" t="s">
         <v>309</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G63">
@@ -4525,7 +4542,7 @@
       <c r="E64" t="s">
         <v>314</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G64">
@@ -4572,7 +4589,7 @@
       <c r="E65" t="s">
         <v>319</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G65">
@@ -4619,7 +4636,7 @@
       <c r="E66" t="s">
         <v>323</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G66">
@@ -4666,7 +4683,7 @@
       <c r="E67" t="s">
         <v>327</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G67">
@@ -4713,7 +4730,7 @@
       <c r="E68" t="s">
         <v>331</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G68">
@@ -4760,7 +4777,7 @@
       <c r="E69" t="s">
         <v>335</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G69">
@@ -4807,7 +4824,7 @@
       <c r="E70" t="s">
         <v>341</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G70" s="2">
@@ -4854,7 +4871,7 @@
       <c r="E71" t="s">
         <v>346</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G71" s="2">
@@ -4901,7 +4918,7 @@
       <c r="E72" t="s">
         <v>348</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G72">
@@ -4948,7 +4965,7 @@
       <c r="E73" t="s">
         <v>353</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G73">
@@ -4995,7 +5012,7 @@
       <c r="E74" t="s">
         <v>357</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G74">
@@ -5042,7 +5059,7 @@
       <c r="E75" t="s">
         <v>361</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G75">
@@ -5089,7 +5106,7 @@
       <c r="E76" t="s">
         <v>367</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G76">
@@ -5136,7 +5153,7 @@
       <c r="E77" t="s">
         <v>372</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G77">
@@ -5183,7 +5200,7 @@
       <c r="E78" t="s">
         <v>377</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G78">
@@ -5230,7 +5247,7 @@
       <c r="E79" t="s">
         <v>382</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G79">
@@ -5277,7 +5294,7 @@
       <c r="E80" t="s">
         <v>387</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G80">
